--- a/11 Sur/BALANCE  ABASTOS 4 CARNES  11 SUR.xlsx
+++ b/11 Sur/BALANCE  ABASTOS 4 CARNES  11 SUR.xlsx
@@ -969,7 +969,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -991,6 +991,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1586,7 +1592,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1805,33 +1811,26 @@
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="7" fontId="8" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1866,31 +1865,41 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1899,8 +1908,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2637,23 +2652,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="120" t="s">
+      <c r="B1" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="119"/>
+      <c r="B2" s="137"/>
       <c r="C2" s="6"/>
       <c r="H2" s="8"/>
       <c r="I2" s="1"/>
@@ -2662,15 +2677,15 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="122"/>
+      <c r="C3" s="140"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
       <c r="K3" s="90"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2682,14 +2697,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="16"/>
-      <c r="E4" s="124" t="s">
+      <c r="E4" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="125"/>
-      <c r="H4" s="126" t="s">
+      <c r="F4" s="143"/>
+      <c r="H4" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="127"/>
+      <c r="I4" s="145"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18" t="s">
         <v>5</v>
@@ -3546,11 +3561,11 @@
       <c r="H39" s="32"/>
       <c r="I39" s="96"/>
       <c r="J39" s="33"/>
-      <c r="K39" s="135">
+      <c r="K39" s="132">
         <f>SUM(K5:K38)</f>
         <v>0</v>
       </c>
-      <c r="L39" s="137">
+      <c r="L39" s="134">
         <f>SUM(L5:L38)</f>
         <v>0</v>
       </c>
@@ -3567,8 +3582,8 @@
       <c r="H40" s="32"/>
       <c r="I40" s="96"/>
       <c r="J40" s="33"/>
-      <c r="K40" s="136"/>
-      <c r="L40" s="138"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="135"/>
       <c r="M40" s="42"/>
     </row>
     <row r="41" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3600,9 +3615,9 @@
       <c r="H42" s="57"/>
       <c r="I42" s="51"/>
       <c r="J42" s="53"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="129"/>
-      <c r="M42" s="132"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="126"/>
+      <c r="M42" s="129"/>
     </row>
     <row r="43" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="58" t="s">
@@ -3629,9 +3644,9 @@
         <v>0</v>
       </c>
       <c r="J43" s="65"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="133"/>
+      <c r="K43" s="127"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="130"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C44" s="6" t="s">
@@ -3642,18 +3657,18 @@
       <c r="A45" s="67"/>
       <c r="B45" s="68"/>
       <c r="C45" s="2"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="131"/>
       <c r="J45" s="69"/>
       <c r="K45" s="99"/>
       <c r="L45" s="99"/>
       <c r="M45" s="70"/>
     </row>
     <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="143" t="s">
+      <c r="D46" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="143"/>
+      <c r="E46" s="122"/>
       <c r="F46" s="71">
         <f>F43-I43-C43</f>
         <v>0</v>
@@ -3662,15 +3677,15 @@
       <c r="J46" s="73"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="144" t="s">
+      <c r="D47" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="E47" s="144"/>
+      <c r="E47" s="123"/>
       <c r="F47" s="74">
         <v>0</v>
       </c>
-      <c r="I47" s="145"/>
-      <c r="J47" s="145"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="124"/>
     </row>
     <row r="48" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D48" s="75"/>
@@ -3710,16 +3725,16 @@
     </row>
     <row r="51" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C51" s="81"/>
-      <c r="D51" s="139" t="s">
+      <c r="D51" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="140"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="82">
         <f>F49+F50</f>
         <v>0</v>
       </c>
-      <c r="I51" s="141"/>
-      <c r="J51" s="141"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="120"/>
       <c r="K51" s="94"/>
     </row>
     <row r="52" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -3732,8 +3747,8 @@
       <c r="K52" s="94"/>
     </row>
     <row r="53" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I53" s="142"/>
-      <c r="J53" s="142"/>
+      <c r="I53" s="121"/>
+      <c r="J53" s="121"/>
       <c r="K53" s="94"/>
     </row>
     <row r="54" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3741,8 +3756,8 @@
       <c r="C54" s="88"/>
       <c r="D54" s="89"/>
       <c r="E54" s="5"/>
-      <c r="I54" s="142"/>
-      <c r="J54" s="142"/>
+      <c r="I54" s="121"/>
+      <c r="J54" s="121"/>
       <c r="K54" s="101"/>
       <c r="L54" s="67"/>
       <c r="M54" s="90"/>
@@ -3866,23 +3881,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I53:J54"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13964,8 +13979,8 @@
   </sheetPr>
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13980,27 +13995,27 @@
     <col min="10" max="10" width="11.7109375" style="12" customWidth="1"/>
     <col min="11" max="11" width="18.140625" style="7" customWidth="1"/>
     <col min="12" max="12" width="16.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="120" t="s">
+      <c r="B1" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="119"/>
+      <c r="B2" s="137"/>
       <c r="C2" s="6"/>
       <c r="H2" s="8"/>
       <c r="I2" s="1"/>
@@ -14009,15 +14024,15 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="122"/>
+      <c r="C3" s="140"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
+      <c r="F3" s="152"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
       <c r="K3" s="90"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14029,14 +14044,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="16"/>
-      <c r="E4" s="124" t="s">
+      <c r="E4" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="125"/>
-      <c r="H4" s="126" t="s">
+      <c r="F4" s="143"/>
+      <c r="H4" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="127"/>
+      <c r="I4" s="145"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18" t="s">
         <v>5</v>
@@ -14044,49 +14059,59 @@
       <c r="L4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="20"/>
+      <c r="M4" s="153"/>
     </row>
     <row r="5" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="22">
-        <v>45261</v>
-      </c>
-      <c r="C5" s="23"/>
+        <v>45292</v>
+      </c>
+      <c r="C5" s="23">
+        <v>29116</v>
+      </c>
       <c r="D5" s="24"/>
       <c r="E5" s="25">
-        <v>45261</v>
-      </c>
-      <c r="F5" s="26"/>
+        <v>45292</v>
+      </c>
+      <c r="F5" s="26">
+        <f>368134+130016+198933</f>
+        <v>697083</v>
+      </c>
       <c r="G5" s="27"/>
       <c r="H5" s="28">
-        <v>45261</v>
-      </c>
-      <c r="I5" s="29"/>
+        <v>45292</v>
+      </c>
+      <c r="I5" s="29">
+        <v>3869</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="98">
-        <v>0</v>
+        <v>617518</v>
       </c>
       <c r="L5" s="43">
-        <v>0</v>
-      </c>
-      <c r="M5" s="30"/>
+        <v>25184</v>
+      </c>
+      <c r="M5" s="151">
+        <f>L5+K5+I5+C5-F5</f>
+        <v>-21396</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
       <c r="B6" s="22">
-        <v>45262</v>
+        <v>45293</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="31"/>
       <c r="E6" s="25">
-        <v>45262</v>
+        <v>45293</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="27"/>
-      <c r="H6" s="32">
-        <v>45262</v>
+      <c r="H6" s="28">
+        <v>45293</v>
       </c>
       <c r="I6" s="51"/>
       <c r="J6" s="33"/>
@@ -14101,17 +14126,17 @@
     <row r="7" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21"/>
       <c r="B7" s="22">
-        <v>45263</v>
+        <v>45294</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="34"/>
       <c r="E7" s="25">
-        <v>45263</v>
+        <v>45294</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="27"/>
-      <c r="H7" s="32">
-        <v>45263</v>
+      <c r="H7" s="28">
+        <v>45294</v>
       </c>
       <c r="I7" s="51"/>
       <c r="J7" s="33"/>
@@ -14126,17 +14151,17 @@
     <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="21"/>
       <c r="B8" s="22">
-        <v>45264</v>
+        <v>45295</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="35"/>
       <c r="E8" s="25">
-        <v>45264</v>
+        <v>45295</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="27"/>
-      <c r="H8" s="32">
-        <v>45264</v>
+      <c r="H8" s="28">
+        <v>45295</v>
       </c>
       <c r="I8" s="51"/>
       <c r="J8" s="52"/>
@@ -14151,17 +14176,17 @@
     <row r="9" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21"/>
       <c r="B9" s="22">
-        <v>45265</v>
+        <v>45296</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="35"/>
       <c r="E9" s="25">
-        <v>45265</v>
+        <v>45296</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
-      <c r="H9" s="32">
-        <v>45265</v>
+      <c r="H9" s="28">
+        <v>45296</v>
       </c>
       <c r="I9" s="51"/>
       <c r="J9" s="33"/>
@@ -14176,17 +14201,17 @@
     <row r="10" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
       <c r="B10" s="22">
-        <v>45266</v>
+        <v>45297</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="34"/>
       <c r="E10" s="25">
-        <v>45266</v>
+        <v>45297</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="27"/>
-      <c r="H10" s="32">
-        <v>45266</v>
+      <c r="H10" s="28">
+        <v>45297</v>
       </c>
       <c r="I10" s="51"/>
       <c r="J10" s="33"/>
@@ -14201,17 +14226,17 @@
     <row r="11" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="22">
-        <v>45267</v>
+        <v>45298</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="31"/>
       <c r="E11" s="25">
-        <v>45267</v>
+        <v>45298</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
-      <c r="H11" s="32">
-        <v>45267</v>
+      <c r="H11" s="28">
+        <v>45298</v>
       </c>
       <c r="I11" s="51"/>
       <c r="J11" s="52"/>
@@ -14226,17 +14251,17 @@
     <row r="12" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21"/>
       <c r="B12" s="22">
-        <v>45268</v>
+        <v>45299</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="31"/>
       <c r="E12" s="25">
-        <v>45268</v>
+        <v>45299</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="27"/>
-      <c r="H12" s="32">
-        <v>45268</v>
+      <c r="H12" s="28">
+        <v>45299</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="33"/>
@@ -14251,17 +14276,17 @@
     <row r="13" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21"/>
       <c r="B13" s="22">
-        <v>45269</v>
+        <v>45300</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="35"/>
       <c r="E13" s="25">
-        <v>45269</v>
+        <v>45300</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="27"/>
-      <c r="H13" s="32">
-        <v>45269</v>
+      <c r="H13" s="28">
+        <v>45300</v>
       </c>
       <c r="I13" s="51"/>
       <c r="J13" s="33"/>
@@ -14276,17 +14301,17 @@
     <row r="14" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21"/>
       <c r="B14" s="22">
-        <v>45270</v>
+        <v>45301</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="34"/>
       <c r="E14" s="25">
-        <v>45270</v>
+        <v>45301</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="27"/>
-      <c r="H14" s="32">
-        <v>45270</v>
+      <c r="H14" s="28">
+        <v>45301</v>
       </c>
       <c r="I14" s="51"/>
       <c r="J14" s="33"/>
@@ -14301,17 +14326,17 @@
     <row r="15" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21"/>
       <c r="B15" s="22">
-        <v>45271</v>
+        <v>45302</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="31"/>
       <c r="E15" s="25">
-        <v>45271</v>
+        <v>45302</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="27"/>
-      <c r="H15" s="32">
-        <v>45271</v>
+      <c r="H15" s="28">
+        <v>45302</v>
       </c>
       <c r="I15" s="51"/>
       <c r="J15" s="33"/>
@@ -14326,17 +14351,17 @@
     <row r="16" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21"/>
       <c r="B16" s="22">
-        <v>45272</v>
+        <v>45303</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="31"/>
       <c r="E16" s="25">
-        <v>45272</v>
+        <v>45303</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
-      <c r="H16" s="32">
-        <v>45272</v>
+      <c r="H16" s="28">
+        <v>45303</v>
       </c>
       <c r="I16" s="51"/>
       <c r="J16" s="33"/>
@@ -14351,17 +14376,17 @@
     <row r="17" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21"/>
       <c r="B17" s="22">
-        <v>45273</v>
+        <v>45304</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="35"/>
       <c r="E17" s="25">
-        <v>45273</v>
+        <v>45304</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="27"/>
-      <c r="H17" s="32">
-        <v>45273</v>
+      <c r="H17" s="28">
+        <v>45304</v>
       </c>
       <c r="I17" s="51"/>
       <c r="J17" s="33"/>
@@ -14376,17 +14401,17 @@
     <row r="18" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="21"/>
       <c r="B18" s="22">
-        <v>45274</v>
+        <v>45305</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="31"/>
       <c r="E18" s="25">
-        <v>45274</v>
+        <v>45305</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="32">
-        <v>45274</v>
+      <c r="H18" s="28">
+        <v>45305</v>
       </c>
       <c r="I18" s="51"/>
       <c r="J18" s="33"/>
@@ -14401,17 +14426,17 @@
     <row r="19" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21"/>
       <c r="B19" s="22">
-        <v>45275</v>
+        <v>45306</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="31"/>
       <c r="E19" s="25">
-        <v>45275</v>
+        <v>45306</v>
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="32">
-        <v>45275</v>
+      <c r="H19" s="28">
+        <v>45306</v>
       </c>
       <c r="I19" s="51"/>
       <c r="J19" s="33"/>
@@ -14426,17 +14451,17 @@
     <row r="20" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21"/>
       <c r="B20" s="22">
-        <v>45276</v>
+        <v>45307</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="31"/>
       <c r="E20" s="25">
-        <v>45276</v>
+        <v>45307</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="32">
-        <v>45276</v>
+      <c r="H20" s="28">
+        <v>45307</v>
       </c>
       <c r="I20" s="51"/>
       <c r="J20" s="33"/>
@@ -14451,17 +14476,17 @@
     <row r="21" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21"/>
       <c r="B21" s="22">
-        <v>45277</v>
+        <v>45308</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="31"/>
       <c r="E21" s="25">
-        <v>45277</v>
+        <v>45308</v>
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="32">
-        <v>45277</v>
+      <c r="H21" s="28">
+        <v>45308</v>
       </c>
       <c r="I21" s="51"/>
       <c r="J21" s="33"/>
@@ -14476,17 +14501,17 @@
     <row r="22" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21"/>
       <c r="B22" s="22">
-        <v>45278</v>
+        <v>45309</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="34"/>
       <c r="E22" s="25">
-        <v>45278</v>
+        <v>45309</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="32">
-        <v>45278</v>
+      <c r="H22" s="28">
+        <v>45309</v>
       </c>
       <c r="I22" s="51"/>
       <c r="J22" s="33"/>
@@ -14501,17 +14526,17 @@
     <row r="23" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21"/>
       <c r="B23" s="22">
-        <v>45279</v>
+        <v>45310</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="34"/>
       <c r="E23" s="25">
-        <v>45279</v>
+        <v>45310</v>
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="27"/>
-      <c r="H23" s="32">
-        <v>45279</v>
+      <c r="H23" s="28">
+        <v>45310</v>
       </c>
       <c r="I23" s="51"/>
       <c r="J23" s="33"/>
@@ -14526,17 +14551,17 @@
     <row r="24" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21"/>
       <c r="B24" s="22">
-        <v>45280</v>
+        <v>45311</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="31"/>
       <c r="E24" s="25">
-        <v>45280</v>
+        <v>45311</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
-      <c r="H24" s="32">
-        <v>45280</v>
+      <c r="H24" s="28">
+        <v>45311</v>
       </c>
       <c r="I24" s="51"/>
       <c r="J24" s="97"/>
@@ -14551,17 +14576,17 @@
     <row r="25" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21"/>
       <c r="B25" s="22">
-        <v>45281</v>
+        <v>45312</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="31"/>
       <c r="E25" s="25">
-        <v>45281</v>
+        <v>45312</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="27"/>
-      <c r="H25" s="32">
-        <v>45281</v>
+      <c r="H25" s="28">
+        <v>45312</v>
       </c>
       <c r="I25" s="51"/>
       <c r="J25" s="36"/>
@@ -14576,17 +14601,17 @@
     <row r="26" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="21"/>
       <c r="B26" s="22">
-        <v>45282</v>
+        <v>45313</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="31"/>
       <c r="E26" s="25">
-        <v>45282</v>
+        <v>45313</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="32">
-        <v>45282</v>
+      <c r="H26" s="28">
+        <v>45313</v>
       </c>
       <c r="I26" s="51"/>
       <c r="J26" s="33"/>
@@ -14601,17 +14626,17 @@
     <row r="27" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21"/>
       <c r="B27" s="22">
-        <v>45283</v>
+        <v>45314</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="35"/>
       <c r="E27" s="25">
-        <v>45283</v>
+        <v>45314</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="27"/>
-      <c r="H27" s="32">
-        <v>45283</v>
+      <c r="H27" s="28">
+        <v>45314</v>
       </c>
       <c r="I27" s="51"/>
       <c r="J27" s="36"/>
@@ -14626,17 +14651,17 @@
     <row r="28" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21"/>
       <c r="B28" s="22">
-        <v>45284</v>
+        <v>45315</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="35"/>
       <c r="E28" s="25">
-        <v>45284</v>
+        <v>45315</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="27"/>
-      <c r="H28" s="32">
-        <v>45284</v>
+      <c r="H28" s="28">
+        <v>45315</v>
       </c>
       <c r="I28" s="51"/>
       <c r="J28" s="33"/>
@@ -14651,17 +14676,17 @@
     <row r="29" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="21"/>
       <c r="B29" s="22">
-        <v>45285</v>
+        <v>45316</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="37"/>
       <c r="E29" s="25">
-        <v>45285</v>
+        <v>45316</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="27"/>
-      <c r="H29" s="32">
-        <v>45285</v>
+      <c r="H29" s="28">
+        <v>45316</v>
       </c>
       <c r="I29" s="51"/>
       <c r="J29" s="38"/>
@@ -14676,17 +14701,17 @@
     <row r="30" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="21"/>
       <c r="B30" s="22">
-        <v>45286</v>
+        <v>45317</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="37"/>
       <c r="E30" s="25">
-        <v>45286</v>
+        <v>45317</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="27"/>
-      <c r="H30" s="32">
-        <v>45286</v>
+      <c r="H30" s="28">
+        <v>45317</v>
       </c>
       <c r="I30" s="51"/>
       <c r="J30" s="39"/>
@@ -14701,17 +14726,17 @@
     <row r="31" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="21"/>
       <c r="B31" s="22">
-        <v>45287</v>
+        <v>45318</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="40"/>
       <c r="E31" s="25">
-        <v>45287</v>
+        <v>45318</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="27"/>
-      <c r="H31" s="32">
-        <v>45287</v>
+      <c r="H31" s="28">
+        <v>45318</v>
       </c>
       <c r="I31" s="51"/>
       <c r="J31" s="39"/>
@@ -14726,19 +14751,19 @@
     <row r="32" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="21"/>
       <c r="B32" s="22">
-        <v>45288</v>
+        <v>45319</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="41"/>
       <c r="E32" s="25">
-        <v>45288</v>
+        <v>45319</v>
       </c>
       <c r="F32" s="26">
         <v>0</v>
       </c>
       <c r="G32" s="27"/>
-      <c r="H32" s="32">
-        <v>45288</v>
+      <c r="H32" s="28">
+        <v>45319</v>
       </c>
       <c r="I32" s="51"/>
       <c r="J32" s="39"/>
@@ -14753,17 +14778,17 @@
     <row r="33" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="21"/>
       <c r="B33" s="22">
-        <v>45289</v>
+        <v>45320</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="40"/>
       <c r="E33" s="25">
-        <v>45289</v>
+        <v>45320</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="27"/>
-      <c r="H33" s="32">
-        <v>45289</v>
+      <c r="H33" s="28">
+        <v>45320</v>
       </c>
       <c r="I33" s="51"/>
       <c r="J33" s="39"/>
@@ -14778,17 +14803,17 @@
     <row r="34" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="21"/>
       <c r="B34" s="22">
-        <v>45290</v>
+        <v>45321</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="41"/>
       <c r="E34" s="25">
-        <v>45290</v>
+        <v>45321</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="27"/>
-      <c r="H34" s="32">
-        <v>45290</v>
+      <c r="H34" s="28">
+        <v>45321</v>
       </c>
       <c r="I34" s="51"/>
       <c r="J34" s="33"/>
@@ -14803,17 +14828,17 @@
     <row r="35" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="21"/>
       <c r="B35" s="22">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="44"/>
       <c r="E35" s="25">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="F35" s="26"/>
       <c r="G35" s="27"/>
-      <c r="H35" s="32">
-        <v>45291</v>
+      <c r="H35" s="28">
+        <v>45322</v>
       </c>
       <c r="I35" s="51"/>
       <c r="J35" s="33"/>
@@ -14893,13 +14918,13 @@
       <c r="H39" s="32"/>
       <c r="I39" s="96"/>
       <c r="J39" s="33"/>
-      <c r="K39" s="135">
+      <c r="K39" s="132">
         <f>SUM(K5:K38)</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="137">
+        <v>617518</v>
+      </c>
+      <c r="L39" s="134">
         <f>SUM(L5:L38)</f>
-        <v>0</v>
+        <v>25184</v>
       </c>
       <c r="M39" s="42"/>
     </row>
@@ -14914,8 +14939,8 @@
       <c r="H40" s="32"/>
       <c r="I40" s="96"/>
       <c r="J40" s="33"/>
-      <c r="K40" s="136"/>
-      <c r="L40" s="138"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="135"/>
       <c r="M40" s="42"/>
     </row>
     <row r="41" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14947,9 +14972,9 @@
       <c r="H42" s="57"/>
       <c r="I42" s="51"/>
       <c r="J42" s="53"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="129"/>
-      <c r="M42" s="132"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="126"/>
+      <c r="M42" s="129"/>
     </row>
     <row r="43" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="58" t="s">
@@ -14957,7 +14982,7 @@
       </c>
       <c r="C43" s="59">
         <f>SUM(C5:C42)</f>
-        <v>0</v>
+        <v>29116</v>
       </c>
       <c r="D43" s="60"/>
       <c r="E43" s="61" t="s">
@@ -14965,7 +14990,7 @@
       </c>
       <c r="F43" s="62">
         <f>SUM(F5:F42)</f>
-        <v>0</v>
+        <v>697083</v>
       </c>
       <c r="G43" s="60"/>
       <c r="H43" s="63" t="s">
@@ -14973,12 +14998,12 @@
       </c>
       <c r="I43" s="64">
         <f>SUM(I5:I42)</f>
-        <v>0</v>
+        <v>3869</v>
       </c>
       <c r="J43" s="65"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="133"/>
+      <c r="K43" s="127"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="130"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C44" s="6" t="s">
@@ -14997,27 +15022,27 @@
       <c r="M45" s="70"/>
     </row>
     <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="143" t="s">
+      <c r="D46" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="143"/>
+      <c r="E46" s="122"/>
       <c r="F46" s="71">
         <f>F43-I43-C43</f>
-        <v>0</v>
+        <v>664098</v>
       </c>
       <c r="I46" s="72"/>
       <c r="J46" s="73"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="144" t="s">
+      <c r="D47" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="E47" s="144"/>
+      <c r="E47" s="123"/>
       <c r="F47" s="74">
         <v>0</v>
       </c>
-      <c r="I47" s="145"/>
-      <c r="J47" s="145"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="124"/>
     </row>
     <row r="48" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D48" s="75"/>
@@ -15037,7 +15062,7 @@
       </c>
       <c r="F49" s="74">
         <f>SUM(F46:F48)</f>
-        <v>0</v>
+        <v>664098</v>
       </c>
       <c r="H49" s="21"/>
       <c r="I49" s="103"/>
@@ -15057,16 +15082,16 @@
     </row>
     <row r="51" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C51" s="81"/>
-      <c r="D51" s="139" t="s">
+      <c r="D51" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="140"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="82">
         <f>F49+F50</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="141"/>
-      <c r="J51" s="141"/>
+        <v>664098</v>
+      </c>
+      <c r="I51" s="120"/>
+      <c r="J51" s="120"/>
       <c r="K51" s="94"/>
     </row>
     <row r="52" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -15079,8 +15104,8 @@
       <c r="K52" s="94"/>
     </row>
     <row r="53" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I53" s="142"/>
-      <c r="J53" s="142"/>
+      <c r="I53" s="121"/>
+      <c r="J53" s="121"/>
       <c r="K53" s="94"/>
     </row>
     <row r="54" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15088,8 +15113,8 @@
       <c r="C54" s="88"/>
       <c r="D54" s="89"/>
       <c r="E54" s="5"/>
-      <c r="I54" s="142"/>
-      <c r="J54" s="142"/>
+      <c r="I54" s="121"/>
+      <c r="J54" s="121"/>
       <c r="K54" s="101"/>
       <c r="L54" s="67"/>
       <c r="M54" s="90"/>
@@ -15213,16 +15238,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I53:J54"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="K42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="H45:I45"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:J1"/>
@@ -15230,6 +15245,16 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="K42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I53:J54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15244,7 +15269,7 @@
   </sheetPr>
   <dimension ref="B1:H356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C42" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -23131,24 +23156,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="148" t="s">
+      <c r="B1" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="149" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="119"/>
+      <c r="B2" s="137"/>
       <c r="C2" s="6"/>
       <c r="H2" s="8"/>
       <c r="I2" s="1"/>
@@ -23157,15 +23182,15 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="122"/>
+      <c r="C3" s="140"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
       <c r="K3" s="90"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -23177,14 +23202,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="16"/>
-      <c r="E4" s="124" t="s">
+      <c r="E4" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="125"/>
-      <c r="H4" s="126" t="s">
+      <c r="F4" s="143"/>
+      <c r="H4" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="127"/>
+      <c r="I4" s="145"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18" t="s">
         <v>5</v>
@@ -24041,11 +24066,11 @@
       <c r="H39" s="32"/>
       <c r="I39" s="96"/>
       <c r="J39" s="33"/>
-      <c r="K39" s="135">
+      <c r="K39" s="132">
         <f>SUM(K5:K38)</f>
         <v>0</v>
       </c>
-      <c r="L39" s="137">
+      <c r="L39" s="134">
         <f>SUM(L5:L38)</f>
         <v>0</v>
       </c>
@@ -24062,8 +24087,8 @@
       <c r="H40" s="32"/>
       <c r="I40" s="96"/>
       <c r="J40" s="33"/>
-      <c r="K40" s="136"/>
-      <c r="L40" s="138"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="135"/>
       <c r="M40" s="42"/>
     </row>
     <row r="41" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -24095,9 +24120,9 @@
       <c r="H42" s="57"/>
       <c r="I42" s="51"/>
       <c r="J42" s="53"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="129"/>
-      <c r="M42" s="132"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="126"/>
+      <c r="M42" s="129"/>
     </row>
     <row r="43" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="58" t="s">
@@ -24124,9 +24149,9 @@
         <v>0</v>
       </c>
       <c r="J43" s="65"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="133"/>
+      <c r="K43" s="127"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="130"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C44" s="6" t="s">
@@ -24137,18 +24162,18 @@
       <c r="A45" s="67"/>
       <c r="B45" s="68"/>
       <c r="C45" s="2"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="131"/>
       <c r="J45" s="117"/>
       <c r="K45" s="99"/>
       <c r="L45" s="99"/>
       <c r="M45" s="70"/>
     </row>
     <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="143" t="s">
+      <c r="D46" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="143"/>
+      <c r="E46" s="122"/>
       <c r="F46" s="71">
         <f>F43-C43-I43</f>
         <v>0</v>
@@ -24157,15 +24182,15 @@
       <c r="J46" s="73"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="150" t="s">
+      <c r="D47" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="150"/>
+      <c r="E47" s="148"/>
       <c r="F47" s="74">
         <v>0</v>
       </c>
-      <c r="I47" s="145"/>
-      <c r="J47" s="145"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="124"/>
     </row>
     <row r="48" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D48" s="75"/>
@@ -24205,16 +24230,16 @@
     </row>
     <row r="51" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C51" s="81"/>
-      <c r="D51" s="139" t="s">
+      <c r="D51" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="140"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="82">
         <f>F49+F50</f>
         <v>0</v>
       </c>
-      <c r="I51" s="141"/>
-      <c r="J51" s="141"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="120"/>
       <c r="K51" s="94"/>
     </row>
     <row r="52" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -24227,8 +24252,8 @@
       <c r="K52" s="94"/>
     </row>
     <row r="53" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I53" s="142"/>
-      <c r="J53" s="142"/>
+      <c r="I53" s="121"/>
+      <c r="J53" s="121"/>
       <c r="K53" s="94"/>
     </row>
     <row r="54" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24236,8 +24261,8 @@
       <c r="C54" s="88"/>
       <c r="D54" s="89"/>
       <c r="E54" s="5"/>
-      <c r="I54" s="142"/>
-      <c r="J54" s="142"/>
+      <c r="I54" s="121"/>
+      <c r="J54" s="121"/>
       <c r="K54" s="101"/>
       <c r="L54" s="67"/>
       <c r="M54" s="90"/>
@@ -24361,6 +24386,15 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="K42:L43"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C1:L1"/>
     <mergeCell ref="I53:J54"/>
     <mergeCell ref="M42:M43"/>
     <mergeCell ref="H45:I45"/>
@@ -24369,15 +24403,6 @@
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="K42:L43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/11 Sur/BALANCE  ABASTOS 4 CARNES  11 SUR.xlsx
+++ b/11 Sur/BALANCE  ABASTOS 4 CARNES  11 SUR.xlsx
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="163">
   <si>
     <t>ELIAS &amp; PEPE</t>
   </si>
@@ -691,6 +691,9 @@
   </si>
   <si>
     <t xml:space="preserve">T O T A L </t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1811,26 +1814,42 @@
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="7" fontId="8" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1865,41 +1884,31 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1908,14 +1917,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2652,23 +2655,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="138" t="s">
+      <c r="B1" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="137"/>
+      <c r="B2" s="122"/>
       <c r="C2" s="6"/>
       <c r="H2" s="8"/>
       <c r="I2" s="1"/>
@@ -2677,15 +2680,15 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="140"/>
+      <c r="C3" s="125"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
       <c r="K3" s="90"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2697,14 +2700,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="16"/>
-      <c r="E4" s="142" t="s">
+      <c r="E4" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="H4" s="144" t="s">
+      <c r="F4" s="128"/>
+      <c r="H4" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="145"/>
+      <c r="I4" s="130"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18" t="s">
         <v>5</v>
@@ -3561,11 +3564,11 @@
       <c r="H39" s="32"/>
       <c r="I39" s="96"/>
       <c r="J39" s="33"/>
-      <c r="K39" s="132">
+      <c r="K39" s="138">
         <f>SUM(K5:K38)</f>
         <v>0</v>
       </c>
-      <c r="L39" s="134">
+      <c r="L39" s="140">
         <f>SUM(L5:L38)</f>
         <v>0</v>
       </c>
@@ -3582,8 +3585,8 @@
       <c r="H40" s="32"/>
       <c r="I40" s="96"/>
       <c r="J40" s="33"/>
-      <c r="K40" s="133"/>
-      <c r="L40" s="135"/>
+      <c r="K40" s="139"/>
+      <c r="L40" s="141"/>
       <c r="M40" s="42"/>
     </row>
     <row r="41" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3615,9 +3618,9 @@
       <c r="H42" s="57"/>
       <c r="I42" s="51"/>
       <c r="J42" s="53"/>
-      <c r="K42" s="125"/>
-      <c r="L42" s="126"/>
-      <c r="M42" s="129"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="135"/>
     </row>
     <row r="43" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="58" t="s">
@@ -3644,9 +3647,9 @@
         <v>0</v>
       </c>
       <c r="J43" s="65"/>
-      <c r="K43" s="127"/>
-      <c r="L43" s="128"/>
-      <c r="M43" s="130"/>
+      <c r="K43" s="133"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="136"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C44" s="6" t="s">
@@ -3657,18 +3660,18 @@
       <c r="A45" s="67"/>
       <c r="B45" s="68"/>
       <c r="C45" s="2"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="131"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
       <c r="J45" s="69"/>
       <c r="K45" s="99"/>
       <c r="L45" s="99"/>
       <c r="M45" s="70"/>
     </row>
     <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="122" t="s">
+      <c r="D46" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="122"/>
+      <c r="E46" s="146"/>
       <c r="F46" s="71">
         <f>F43-I43-C43</f>
         <v>0</v>
@@ -3677,15 +3680,15 @@
       <c r="J46" s="73"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="123" t="s">
+      <c r="D47" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="E47" s="123"/>
+      <c r="E47" s="147"/>
       <c r="F47" s="74">
         <v>0</v>
       </c>
-      <c r="I47" s="124"/>
-      <c r="J47" s="124"/>
+      <c r="I47" s="148"/>
+      <c r="J47" s="148"/>
     </row>
     <row r="48" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D48" s="75"/>
@@ -3725,16 +3728,16 @@
     </row>
     <row r="51" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C51" s="81"/>
-      <c r="D51" s="118" t="s">
+      <c r="D51" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="119"/>
+      <c r="E51" s="143"/>
       <c r="F51" s="82">
         <f>F49+F50</f>
         <v>0</v>
       </c>
-      <c r="I51" s="120"/>
-      <c r="J51" s="120"/>
+      <c r="I51" s="144"/>
+      <c r="J51" s="144"/>
       <c r="K51" s="94"/>
     </row>
     <row r="52" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -3747,8 +3750,8 @@
       <c r="K52" s="94"/>
     </row>
     <row r="53" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I53" s="121"/>
-      <c r="J53" s="121"/>
+      <c r="I53" s="145"/>
+      <c r="J53" s="145"/>
       <c r="K53" s="94"/>
     </row>
     <row r="54" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3756,8 +3759,8 @@
       <c r="C54" s="88"/>
       <c r="D54" s="89"/>
       <c r="E54" s="5"/>
-      <c r="I54" s="121"/>
-      <c r="J54" s="121"/>
+      <c r="I54" s="145"/>
+      <c r="J54" s="145"/>
       <c r="K54" s="101"/>
       <c r="L54" s="67"/>
       <c r="M54" s="90"/>
@@ -3881,23 +3884,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I53:J54"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I53:J54"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:J47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13999,23 +14002,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="138" t="s">
+      <c r="B1" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="137"/>
+      <c r="B2" s="122"/>
       <c r="C2" s="6"/>
       <c r="H2" s="8"/>
       <c r="I2" s="1"/>
@@ -14024,15 +14027,15 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="140"/>
+      <c r="C3" s="125"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="152"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
+      <c r="F3" s="119"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
       <c r="K3" s="90"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14044,14 +14047,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="16"/>
-      <c r="E4" s="142" t="s">
+      <c r="E4" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="H4" s="144" t="s">
+      <c r="F4" s="128"/>
+      <c r="H4" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="145"/>
+      <c r="I4" s="130"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18" t="s">
         <v>5</v>
@@ -14059,7 +14062,7 @@
       <c r="L4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="153"/>
+      <c r="M4" s="120"/>
     </row>
     <row r="5" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
@@ -14093,7 +14096,7 @@
       <c r="L5" s="43">
         <v>25184</v>
       </c>
-      <c r="M5" s="151">
+      <c r="M5" s="118">
         <f>L5+K5+I5+C5-F5</f>
         <v>-21396</v>
       </c>
@@ -14918,11 +14921,11 @@
       <c r="H39" s="32"/>
       <c r="I39" s="96"/>
       <c r="J39" s="33"/>
-      <c r="K39" s="132">
+      <c r="K39" s="138">
         <f>SUM(K5:K38)</f>
         <v>617518</v>
       </c>
-      <c r="L39" s="134">
+      <c r="L39" s="140">
         <f>SUM(L5:L38)</f>
         <v>25184</v>
       </c>
@@ -14939,8 +14942,8 @@
       <c r="H40" s="32"/>
       <c r="I40" s="96"/>
       <c r="J40" s="33"/>
-      <c r="K40" s="133"/>
-      <c r="L40" s="135"/>
+      <c r="K40" s="139"/>
+      <c r="L40" s="141"/>
       <c r="M40" s="42"/>
     </row>
     <row r="41" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14972,9 +14975,9 @@
       <c r="H42" s="57"/>
       <c r="I42" s="51"/>
       <c r="J42" s="53"/>
-      <c r="K42" s="125"/>
-      <c r="L42" s="126"/>
-      <c r="M42" s="129"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="135"/>
     </row>
     <row r="43" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="58" t="s">
@@ -15001,9 +15004,9 @@
         <v>3869</v>
       </c>
       <c r="J43" s="65"/>
-      <c r="K43" s="127"/>
-      <c r="L43" s="128"/>
-      <c r="M43" s="130"/>
+      <c r="K43" s="133"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="136"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C44" s="6" t="s">
@@ -15014,18 +15017,18 @@
       <c r="A45" s="67"/>
       <c r="B45" s="68"/>
       <c r="C45" s="2"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="147"/>
+      <c r="H45" s="149"/>
+      <c r="I45" s="150"/>
       <c r="J45" s="69"/>
       <c r="K45" s="99"/>
       <c r="L45" s="99"/>
       <c r="M45" s="70"/>
     </row>
     <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="122" t="s">
+      <c r="D46" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="122"/>
+      <c r="E46" s="146"/>
       <c r="F46" s="71">
         <f>F43-I43-C43</f>
         <v>664098</v>
@@ -15034,15 +15037,15 @@
       <c r="J46" s="73"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="123" t="s">
+      <c r="D47" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="E47" s="123"/>
+      <c r="E47" s="147"/>
       <c r="F47" s="74">
         <v>0</v>
       </c>
-      <c r="I47" s="124"/>
-      <c r="J47" s="124"/>
+      <c r="I47" s="148"/>
+      <c r="J47" s="148"/>
     </row>
     <row r="48" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D48" s="75"/>
@@ -15082,16 +15085,16 @@
     </row>
     <row r="51" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C51" s="81"/>
-      <c r="D51" s="118" t="s">
+      <c r="D51" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="119"/>
+      <c r="E51" s="143"/>
       <c r="F51" s="82">
         <f>F49+F50</f>
         <v>664098</v>
       </c>
-      <c r="I51" s="120"/>
-      <c r="J51" s="120"/>
+      <c r="I51" s="144"/>
+      <c r="J51" s="144"/>
       <c r="K51" s="94"/>
     </row>
     <row r="52" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -15104,8 +15107,8 @@
       <c r="K52" s="94"/>
     </row>
     <row r="53" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I53" s="121"/>
-      <c r="J53" s="121"/>
+      <c r="I53" s="145"/>
+      <c r="J53" s="145"/>
       <c r="K53" s="94"/>
     </row>
     <row r="54" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15113,8 +15116,8 @@
       <c r="C54" s="88"/>
       <c r="D54" s="89"/>
       <c r="E54" s="5"/>
-      <c r="I54" s="121"/>
-      <c r="J54" s="121"/>
+      <c r="I54" s="145"/>
+      <c r="J54" s="145"/>
       <c r="K54" s="101"/>
       <c r="L54" s="67"/>
       <c r="M54" s="90"/>
@@ -15238,6 +15241,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I53:J54"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="K42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="H45:I45"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:J1"/>
@@ -15245,16 +15258,6 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="K42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I53:J54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15270,7 +15273,7 @@
   <dimension ref="B1:H356"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C42" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16270,7 +16273,9 @@
       <c r="E45" s="2">
         <v>1662.6</v>
       </c>
-      <c r="F45" s="109"/>
+      <c r="F45" s="109" t="s">
+        <v>162</v>
+      </c>
       <c r="G45" s="110">
         <v>0</v>
       </c>
@@ -23156,24 +23161,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="149" t="s">
+      <c r="B1" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="151" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="137"/>
+      <c r="B2" s="122"/>
       <c r="C2" s="6"/>
       <c r="H2" s="8"/>
       <c r="I2" s="1"/>
@@ -23182,15 +23187,15 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="140"/>
+      <c r="C3" s="125"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
       <c r="K3" s="90"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -23202,14 +23207,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="16"/>
-      <c r="E4" s="142" t="s">
+      <c r="E4" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="H4" s="144" t="s">
+      <c r="F4" s="128"/>
+      <c r="H4" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="145"/>
+      <c r="I4" s="130"/>
       <c r="J4" s="17"/>
       <c r="K4" s="18" t="s">
         <v>5</v>
@@ -24066,11 +24071,11 @@
       <c r="H39" s="32"/>
       <c r="I39" s="96"/>
       <c r="J39" s="33"/>
-      <c r="K39" s="132">
+      <c r="K39" s="138">
         <f>SUM(K5:K38)</f>
         <v>0</v>
       </c>
-      <c r="L39" s="134">
+      <c r="L39" s="140">
         <f>SUM(L5:L38)</f>
         <v>0</v>
       </c>
@@ -24087,8 +24092,8 @@
       <c r="H40" s="32"/>
       <c r="I40" s="96"/>
       <c r="J40" s="33"/>
-      <c r="K40" s="133"/>
-      <c r="L40" s="135"/>
+      <c r="K40" s="139"/>
+      <c r="L40" s="141"/>
       <c r="M40" s="42"/>
     </row>
     <row r="41" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -24120,9 +24125,9 @@
       <c r="H42" s="57"/>
       <c r="I42" s="51"/>
       <c r="J42" s="53"/>
-      <c r="K42" s="125"/>
-      <c r="L42" s="126"/>
-      <c r="M42" s="129"/>
+      <c r="K42" s="131"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="135"/>
     </row>
     <row r="43" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="58" t="s">
@@ -24149,9 +24154,9 @@
         <v>0</v>
       </c>
       <c r="J43" s="65"/>
-      <c r="K43" s="127"/>
-      <c r="L43" s="128"/>
-      <c r="M43" s="130"/>
+      <c r="K43" s="133"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="136"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C44" s="6" t="s">
@@ -24162,18 +24167,18 @@
       <c r="A45" s="67"/>
       <c r="B45" s="68"/>
       <c r="C45" s="2"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="131"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
       <c r="J45" s="117"/>
       <c r="K45" s="99"/>
       <c r="L45" s="99"/>
       <c r="M45" s="70"/>
     </row>
     <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="122" t="s">
+      <c r="D46" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="122"/>
+      <c r="E46" s="146"/>
       <c r="F46" s="71">
         <f>F43-C43-I43</f>
         <v>0</v>
@@ -24182,15 +24187,15 @@
       <c r="J46" s="73"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="148" t="s">
+      <c r="D47" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="148"/>
+      <c r="E47" s="153"/>
       <c r="F47" s="74">
         <v>0</v>
       </c>
-      <c r="I47" s="124"/>
-      <c r="J47" s="124"/>
+      <c r="I47" s="148"/>
+      <c r="J47" s="148"/>
     </row>
     <row r="48" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D48" s="75"/>
@@ -24230,16 +24235,16 @@
     </row>
     <row r="51" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C51" s="81"/>
-      <c r="D51" s="118" t="s">
+      <c r="D51" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="119"/>
+      <c r="E51" s="143"/>
       <c r="F51" s="82">
         <f>F49+F50</f>
         <v>0</v>
       </c>
-      <c r="I51" s="120"/>
-      <c r="J51" s="120"/>
+      <c r="I51" s="144"/>
+      <c r="J51" s="144"/>
       <c r="K51" s="94"/>
     </row>
     <row r="52" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
@@ -24252,8 +24257,8 @@
       <c r="K52" s="94"/>
     </row>
     <row r="53" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I53" s="121"/>
-      <c r="J53" s="121"/>
+      <c r="I53" s="145"/>
+      <c r="J53" s="145"/>
       <c r="K53" s="94"/>
     </row>
     <row r="54" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24261,8 +24266,8 @@
       <c r="C54" s="88"/>
       <c r="D54" s="89"/>
       <c r="E54" s="5"/>
-      <c r="I54" s="121"/>
-      <c r="J54" s="121"/>
+      <c r="I54" s="145"/>
+      <c r="J54" s="145"/>
       <c r="K54" s="101"/>
       <c r="L54" s="67"/>
       <c r="M54" s="90"/>
@@ -24386,6 +24391,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I53:J54"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="D46:E46"/>
     <mergeCell ref="K39:K40"/>
     <mergeCell ref="L39:L40"/>
     <mergeCell ref="K42:L43"/>
@@ -24395,14 +24408,6 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="C1:L1"/>
-    <mergeCell ref="I53:J54"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="D46:E46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
